--- a/storage/app/public/import_templates/kits_import_template.xlsx
+++ b/storage/app/public/import_templates/kits_import_template.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t xml:space="preserve">order_id</t>
   </si>
@@ -32,6 +32,9 @@
   </si>
   <si>
     <t xml:space="preserve">kit_dispatched_date</t>
+  </si>
+  <si>
+    <t xml:space="preserve">sample_received_date</t>
   </si>
 </sst>
 </file>
@@ -147,7 +150,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:D1"/>
+  <dimension ref="A1:E1"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
@@ -159,7 +162,8 @@
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.68"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="10.6"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="1" width="23.54"/>
-    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="5" style="0" width="11.52"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="1" width="26.31"/>
+    <col collapsed="false" customWidth="false" hidden="false" outlineLevel="0" max="1025" min="6" style="0" width="11.52"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="15" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -175,6 +179,9 @@
       <c r="D1" s="3" t="s">
         <v>3</v>
       </c>
+      <c r="E1" s="3" t="s">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
